--- a/Gruppe_6/ACT/visc_plot_data_exp1.xlsx
+++ b/Gruppe_6/ACT/visc_plot_data_exp1.xlsx
@@ -379,10 +379,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.0003322789060861075</v>
+        <v>0.0002899833363359859</v>
       </c>
       <c r="C2">
-        <v>9.071686013078621e-006</v>
+        <v>7.916956893987468e-006</v>
       </c>
     </row>
     <row r="3">
@@ -390,10 +390,10 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.0003579375088726795</v>
+        <v>0.0003123758719603863</v>
       </c>
       <c r="C3">
-        <v>1.814337202615732e-006</v>
+        <v>1.583391378797494e-006</v>
       </c>
     </row>
     <row r="4">
@@ -401,10 +401,10 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.002031519875626839</v>
+        <v>0.001772929008061906</v>
       </c>
       <c r="C4">
-        <v>0.0007955868633469893</v>
+        <v>0.0006943171196026997</v>
       </c>
     </row>
     <row r="5">
@@ -412,10 +412,10 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.004639075383812219</v>
+        <v>0.004048570440891602</v>
       </c>
       <c r="C5">
-        <v>0.0009797420894124846</v>
+        <v>0.0008550313445506444</v>
       </c>
     </row>
     <row r="6">
@@ -423,10 +423,10 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>0.07107121690086264</v>
+        <v>0.06202460709025527</v>
       </c>
       <c r="C6">
-        <v>0.002837841468194846</v>
+        <v>0.002476614440058681</v>
       </c>
     </row>
     <row r="7">
@@ -434,10 +434,10 @@
         <v>40</v>
       </c>
       <c r="B7">
-        <v>0.1159991848489203</v>
+        <v>0.101233722690864</v>
       </c>
       <c r="C7">
-        <v>0.008040148209176107</v>
+        <v>0.007016722878365615</v>
       </c>
     </row>
     <row r="8">
@@ -445,10 +445,10 @@
         <v>50</v>
       </c>
       <c r="B8">
-        <v>0.1219177486886808</v>
+        <v>0.1063989163192748</v>
       </c>
       <c r="C8">
-        <v>0.002287757629970732</v>
+        <v>0.001996550422298247</v>
       </c>
     </row>
     <row r="9">
@@ -456,10 +456,10 @@
         <v>60</v>
       </c>
       <c r="B9">
-        <v>0.0825915751594441</v>
+        <v>0.07207854630342808</v>
       </c>
       <c r="C9">
-        <v>0.002579226751096843</v>
+        <v>0.002250918625139153</v>
       </c>
     </row>
   </sheetData>
